--- a/backend/少年宫账号导入表.xlsx
+++ b/backend/少年宫账号导入表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F99AF8-1FA8-4E11-AB41-E1429D755937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -167,8 +168,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,8 +208,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -220,11 +224,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -266,7 +278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,9 +310,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,6 +362,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,29 +555,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.23046875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -542,11 +593,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>123456</v>
       </c>
       <c r="C3" t="s">
@@ -556,14 +607,14 @@
         <v>27</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>123457</v>
       </c>
       <c r="C4" t="s">
@@ -573,14 +624,14 @@
         <v>28</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>123458</v>
       </c>
       <c r="C5" t="s">
@@ -590,14 +641,14 @@
         <v>29</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>123459</v>
       </c>
       <c r="C6" t="s">
@@ -607,14 +658,14 @@
         <v>30</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>123460</v>
       </c>
       <c r="C7" t="s">
@@ -624,14 +675,14 @@
         <v>31</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>123461</v>
       </c>
       <c r="C8" t="s">
@@ -641,14 +692,14 @@
         <v>32</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>123462</v>
       </c>
       <c r="C9" t="s">
@@ -658,14 +709,14 @@
         <v>33</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>123463</v>
       </c>
       <c r="C10" t="s">
@@ -675,14 +726,14 @@
         <v>34</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>123464</v>
       </c>
       <c r="C11" t="s">
@@ -692,14 +743,14 @@
         <v>35</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>123465</v>
       </c>
       <c r="C12" t="s">
@@ -709,14 +760,14 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>123466</v>
       </c>
       <c r="C13" t="s">
@@ -726,14 +777,14 @@
         <v>37</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>123467</v>
       </c>
       <c r="C14" t="s">
@@ -743,7 +794,7 @@
         <v>38</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -757,12 +808,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -771,12 +822,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
